--- a/LNN.xlsx
+++ b/LNN.xlsx
@@ -1,29 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38891B62-1935-4C44-88D9-C99116348D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="19990" yWindow="3950" windowWidth="16820" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>main</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +80,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +367,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A6A5B-940B-4A26-85EA-8C9A633F5B9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{C26D317E-374B-48B8-9E4D-5F1A150C18A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LNN.xlsx
+++ b/LNN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38891B62-1935-4C44-88D9-C99116348D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2322CAF6-F23E-4D6B-81AD-86977127E691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19990" yWindow="3950" windowWidth="16820" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="2670" windowWidth="18610" windowHeight="17710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>main</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>OpInc</t>
+  </si>
+  <si>
+    <t>Int Exp</t>
+  </si>
+  <si>
+    <t>Int Income</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Total Other</t>
+  </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>PreTax Earnings</t>
+  </si>
+  <si>
+    <t>Tax Expense</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>EPS Basic</t>
+  </si>
+  <si>
+    <t>EPS Diluted</t>
+  </si>
+  <si>
+    <t>Shares Basic</t>
+  </si>
+  <si>
+    <t>Shared Diluted</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Gross margin</t>
+  </si>
+  <si>
+    <t>Operating margin</t>
+  </si>
+  <si>
+    <t>Mkt Sec</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inv</t>
+  </si>
+  <si>
+    <t>Other Curr</t>
+  </si>
+  <si>
+    <t>Total Curr</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>Depr</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Op Lease Assets</t>
+  </si>
+  <si>
+    <t>Def Income Taxes</t>
+  </si>
+  <si>
+    <t>Equity method investment</t>
+  </si>
+  <si>
+    <t>Other NonCurr</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +211,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,9 +245,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -368,29 +537,862 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>143.75</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10.862</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <f>+L3*L2</f>
+        <v>1561.4124999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>196.11699999999999</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3">
+        <f>232+114.856</f>
+        <v>346.85599999999999</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="3">
+        <f>+L4-L5+L6</f>
+        <v>1712.1514999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A6A5B-940B-4A26-85EA-8C9A633F5B9D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E2" s="2">
+        <v>45443</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>139199</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>169464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>92702</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>115842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:H6" si="0">+C4-C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>46497</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <f>+I4-I5</f>
+        <v>53622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>9579</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>10217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>12695</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>14903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>4287</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" ref="C10:D10" si="1">+C7+C8+C9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f>+E7+E8+E9</f>
+        <v>26561</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:I10" si="2">+F7+F8+F9</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>29829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <f>+C6-C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" ref="D11:I11" si="3">+D6-D10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="3"/>
+        <v>19936</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="3"/>
+        <v>23793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-767</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>961</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43</v>
+      </c>
+      <c r="I14" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
+        <f>+C12+C13+C14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:I15" si="4">+D12+D13+D14</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="4"/>
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:D16" si="5">+C11+C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <f>+E11+E15</f>
+        <v>20173</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:I16" si="6">+F11+F15</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="6"/>
+        <v>25714</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-206</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18:D18" si="7">+C16-C17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <f>+E16-E17</f>
+        <v>20379</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:I18" si="8">+F16-F17</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="8"/>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8" t="str">
+        <f>+IFERROR(C18/C21,"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f t="shared" ref="D19:I19" si="9">+IFERROR(D18/D21,"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="9"/>
+        <v>1.853310294652601</v>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H19" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="9"/>
+        <v>1.7952494936475787</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="8" t="str">
+        <f t="shared" ref="C20:I20" si="10">+IFERROR(C18/C22,"")</f>
+        <v/>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="10"/>
+        <v>1.8475974614687216</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G20" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H20" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I20" s="8">
+        <f>+IFERROR(I18/I22,"")</f>
+        <v>1.7839172994236574</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
+        <v>10996</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>10862</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <v>11030</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>10931</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9">
+        <f>+I4/E4-1</f>
+        <v>0.21742253895502128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="9">
+        <f>+E6/E4</f>
+        <v>0.33403257207307524</v>
+      </c>
+      <c r="I25" s="9">
+        <f>+I6/I4</f>
+        <v>0.31642118680073644</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="9">
+        <f>+E16/E4</f>
+        <v>0.14492201811794625</v>
+      </c>
+      <c r="I26" s="9">
+        <f>+I16/I4</f>
+        <v>0.15173724212812162</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>140221</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>196117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>12497</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>14676</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>134461</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>147848</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>171522</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>150462</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>30017</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>38143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" ref="C33:D33" si="11">+SUM(C28:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <f>+SUM(E28:E32)</f>
+        <v>488718</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" ref="F33:I33" si="12">+SUM(F28:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="12"/>
+        <v>547246</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="3">
+        <v>277825</v>
+      </c>
+      <c r="I34" s="3">
+        <v>304625</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-166196</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-174014</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" ref="C36:D36" si="13">+C34+C35</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <f>+E34+E35</f>
+        <v>111629</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" ref="F36:I36" si="14">+F34+F35</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="14"/>
+        <v>130611</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="3">
+        <v>25644</v>
+      </c>
+      <c r="I37" s="3">
+        <v>23703</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="3">
+        <v>84102</v>
+      </c>
+      <c r="I38" s="3">
+        <v>84304</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="3">
+        <v>16308</v>
+      </c>
+      <c r="I39" s="3">
+        <v>16899</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="3">
+        <v>13367</v>
+      </c>
+      <c r="I40" s="3">
+        <v>18945</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>8337</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18333</v>
+      </c>
+      <c r="I42" s="3">
+        <v>10818</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" ref="C43:H43" si="15">+SUM(C36:C42)+C33</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="15"/>
+        <v>758101</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <f>+SUM(I36:I42)+I33</f>
+        <v>840863</v>
       </c>
     </row>
   </sheetData>

--- a/LNN.xlsx
+++ b/LNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2322CAF6-F23E-4D6B-81AD-86977127E691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1D4D02-5C3D-49BE-8DCC-48F47ADC0A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="2670" windowWidth="18610" windowHeight="17710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2530" yWindow="2770" windowWidth="16360" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>main</t>
   </si>
@@ -189,10 +189,70 @@
     <t>Equity method investment</t>
   </si>
   <si>
-    <t>Other NonCurr</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>OLTA</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>CPLTD</t>
+  </si>
+  <si>
+    <t>Other CL</t>
+  </si>
+  <si>
+    <t>Total Curr Liab</t>
+  </si>
+  <si>
+    <t>PensionBen</t>
+  </si>
+  <si>
+    <t>LTD</t>
+  </si>
+  <si>
+    <t>OpLease Liab</t>
+  </si>
+  <si>
+    <t>Def Inc Tax Liab</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>Total Liab</t>
+  </si>
+  <si>
+    <t>Common Stock</t>
+  </si>
+  <si>
+    <t>Cap in excess</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Treasury Stock</t>
+  </si>
+  <si>
+    <t>Accum other losses</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>L+E</t>
+  </si>
+  <si>
+    <t>Tangible Book</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
   </si>
 </sst>
 </file>
@@ -252,10 +312,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,13 +675,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0A6A5B-940B-4A26-85EA-8C9A633F5B9D}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomRight" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -993,31 +1053,31 @@
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="6" t="str">
         <f>+IFERROR(C18/C21,"")</f>
         <v/>
       </c>
-      <c r="D19" s="8" t="str">
+      <c r="D19" s="6" t="str">
         <f t="shared" ref="D19:I19" si="9">+IFERROR(D18/D21,"")</f>
         <v/>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <f t="shared" si="9"/>
         <v>1.853310294652601</v>
       </c>
-      <c r="F19" s="8" t="str">
+      <c r="F19" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G19" s="8" t="str">
+      <c r="G19" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H19" s="8" t="str">
+      <c r="H19" s="6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <f t="shared" si="9"/>
         <v>1.7952494936475787</v>
       </c>
@@ -1026,64 +1086,64 @@
       <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="8" t="str">
-        <f t="shared" ref="C20:I20" si="10">+IFERROR(C18/C22,"")</f>
+      <c r="C20" s="6" t="str">
+        <f t="shared" ref="C20:H20" si="10">+IFERROR(C18/C22,"")</f>
         <v/>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D20" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <f t="shared" si="10"/>
         <v>1.8475974614687216</v>
       </c>
-      <c r="F20" s="8" t="str">
+      <c r="F20" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G20" s="8" t="str">
+      <c r="G20" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H20" s="8" t="str">
+      <c r="H20" s="6" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <f>+IFERROR(I18/I22,"")</f>
         <v>1.7839172994236574</v>
       </c>
     </row>
-    <row r="21" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>10996</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
         <v>10862</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <v>11030</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
         <v>10931</v>
       </c>
     </row>
@@ -1091,13 +1151,13 @@
       <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
         <f>+I4/E4-1</f>
         <v>0.21742253895502128</v>
       </c>
@@ -1106,11 +1166,11 @@
       <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <f>+E6/E4</f>
         <v>0.33403257207307524</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <f>+I6/I4</f>
         <v>0.31642118680073644</v>
       </c>
@@ -1119,11 +1179,11 @@
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <f>+E16/E4</f>
         <v>0.14492201811794625</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <f>+I16/I4</f>
         <v>0.15173724212812162</v>
       </c>
@@ -1353,7 +1413,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E42" s="3">
         <v>18333</v>
@@ -1364,7 +1424,7 @@
     </row>
     <row r="43" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="5">
         <f t="shared" ref="C43:H43" si="15">+SUM(C36:C42)+C33</f>
@@ -1393,6 +1453,367 @@
       <c r="I43" s="5">
         <f>+SUM(I36:I42)+I33</f>
         <v>840863</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>35062</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>229</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>88446</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
+        <v>103012</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="5">
+        <f>+SUM(C45:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" ref="D48:I48" si="16">+SUM(D45:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="16"/>
+        <v>123737</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="16"/>
+        <v>150244</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4159</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="3">
+        <v>115029</v>
+      </c>
+      <c r="I50" s="3">
+        <v>114856</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="3">
+        <v>16134</v>
+      </c>
+      <c r="I51" s="3">
+        <v>16572</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="3">
+        <v>682</v>
+      </c>
+      <c r="I52" s="3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="3">
+        <v>18364</v>
+      </c>
+      <c r="I53" s="3">
+        <v>25743</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="5">
+        <f>+SUM(C48:C53)</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" ref="D54:I54" si="17">+SUM(D48:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="17"/>
+        <v>278105</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" si="17"/>
+        <v>312087</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="9">
+        <v>19123</v>
+      </c>
+      <c r="I56" s="9">
+        <v>19162</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="9">
+        <v>102752</v>
+      </c>
+      <c r="I57" s="9">
+        <v>110523</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="9">
+        <v>678261</v>
+      </c>
+      <c r="I58" s="9">
+        <v>738598</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="9">
+        <v>-295138</v>
+      </c>
+      <c r="I59" s="9">
+        <v>-302367</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="9">
+        <v>-25002</v>
+      </c>
+      <c r="I60" s="9">
+        <v>-37140</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="5">
+        <f>+SUM(C56:C60)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" ref="D61:I61" si="18">+SUM(D56:D60)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="18"/>
+        <v>479996</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="18"/>
+        <v>528776</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="5">
+        <f>+C61-C37-C38</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <f>+D61-D37-D38</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <f>+E61-E37-E38</f>
+        <v>370250</v>
+      </c>
+      <c r="F62" s="5">
+        <f>+F61-F37-F38</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <f>+G61-G37-G38</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <f>+H61-H37-H38</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="5">
+        <f>+I61-I37-I38</f>
+        <v>420769</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="5">
+        <f>+C61+C54</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" ref="D63:I63" si="19">+D61+D54</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="19"/>
+        <v>758101</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="5">
+        <f t="shared" si="19"/>
+        <v>840863</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" ref="C65:I65" si="20">+C18</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="20"/>
+        <v>20379</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="5">
+        <f>+I18</f>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
